--- a/inside_office/excel/1級.xlsx
+++ b/inside_office/excel/1級.xlsx
@@ -1,29 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.15.32\課題回収\おくむら(Web1B)\012 こうよう\Excel-1級\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seito\Documents\012Yeung\openforward\inside_office\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1DC5A8-C9FD-44C0-AB41-5EB27AE0EE82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BD1D16-D809-4B03-9541-7243FB0BCFDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1" sheetId="1" r:id="rId1"/>
     <sheet name="1-2" sheetId="2" r:id="rId2"/>
     <sheet name="1-3" sheetId="3" r:id="rId3"/>
     <sheet name="1-4" sheetId="4" r:id="rId4"/>
+    <sheet name="1-5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1-1'!$A$2:$L$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1-2'!$A$2:$L$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1-3'!$A$2:$L$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1-4'!$A$2:$M$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1-5'!$A$2:$M$14</definedName>
     <definedName name="委託販売一覧表2">'1-2'!$A$2:$L$18</definedName>
+    <definedName name="支店別販売一覧表4">'1-4'!$A$2:$M$18</definedName>
+    <definedName name="社員別給料計算表5">'1-5'!$A$2:$L$14</definedName>
     <definedName name="社員別賃金一覧表1">'1-1'!$A$2:$L$11</definedName>
     <definedName name="得意先別売上一覧表3">'1-3'!$A$2:$L$18</definedName>
   </definedNames>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="251">
   <si>
     <t>社員別賃金一覧表</t>
     <rPh sb="0" eb="2">
@@ -1446,6 +1450,503 @@
     </rPh>
     <rPh sb="3" eb="6">
       <t>シュウケイヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新宿支店</t>
+    <rPh sb="0" eb="2">
+      <t>シンジュク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>池袋支店</t>
+    <rPh sb="0" eb="2">
+      <t>イケブクロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>銀座支店</t>
+    <rPh sb="0" eb="2">
+      <t>ギンザ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>渋谷支店</t>
+    <rPh sb="0" eb="2">
+      <t>シブヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>販売数が220以上で販売額が53万円以上の利益額の合計</t>
+    <rPh sb="0" eb="3">
+      <t>ハンバイスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ハンバイガク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>マンエン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>販売額が55万円未満で利益率が19.0％以下の件数</t>
+    <rPh sb="0" eb="3">
+      <t>ハンバイガク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>マンエン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>リエキリツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>渋谷支店以外で達成率が104.0％以上の平均売価の最小</t>
+    <rPh sb="0" eb="2">
+      <t>シブヤ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>タッセイリツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ヘイキンバイカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&gt;=220</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&gt;=530000</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;550000</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;=19.0%</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;&gt;渋谷支店</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&gt;=104%</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員別給料計算表</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キュウリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ケイサンヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>販売エリア名</t>
+    <rPh sb="0" eb="2">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>等級</t>
+    <rPh sb="0" eb="2">
+      <t>トウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本給</t>
+    <rPh sb="0" eb="3">
+      <t>キホンキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>達成率</t>
+    <rPh sb="0" eb="3">
+      <t>タッセイリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>販売手当</t>
+    <rPh sb="0" eb="2">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テアテ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支給総額</t>
+    <rPh sb="0" eb="4">
+      <t>シキュウソウガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小林　信夫</t>
+    <rPh sb="0" eb="2">
+      <t>コバヤシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シノブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>坂本　里美</t>
+    <rPh sb="0" eb="2">
+      <t>サカモト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サトミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>南　ひろみ</t>
+    <rPh sb="0" eb="1">
+      <t>ミナミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大西　三郎</t>
+    <rPh sb="0" eb="2">
+      <t>オオニシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サンロウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山田　洋子</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>長谷川　勇</t>
+    <rPh sb="0" eb="3">
+      <t>ナガタニカワ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ユウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中野　雄一</t>
+    <rPh sb="0" eb="2">
+      <t>ナカノ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水口　美鈴</t>
+    <rPh sb="0" eb="2">
+      <t>ミナグチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>メイリン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>荒木　輝政</t>
+    <rPh sb="0" eb="2">
+      <t>アラキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カガヤ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>渡辺　明代</t>
+    <rPh sb="0" eb="2">
+      <t>ワタナベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミンダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>井上　公平</t>
+    <rPh sb="0" eb="2">
+      <t>イノウエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウヘイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>森　麻衣子</t>
+    <rPh sb="0" eb="1">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>マイコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>販売エリア</t>
+    <rPh sb="0" eb="2">
+      <t>ハンバイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東北</t>
+    <rPh sb="0" eb="2">
+      <t>トウホク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>関東</t>
+    <rPh sb="0" eb="2">
+      <t>カントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中部</t>
+    <rPh sb="0" eb="2">
+      <t>チュウブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>関西</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>販売手当単価</t>
+    <rPh sb="0" eb="2">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テアテ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤勉手当単価</t>
+    <rPh sb="0" eb="2">
+      <t>キンベン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テアテ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>100.0%未満</t>
+    <rPh sb="6" eb="8">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>100.0%以上</t>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>**</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>****</t>
+  </si>
+  <si>
+    <t>****</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>***</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東北エリア</t>
+  </si>
+  <si>
+    <t>関東エリア</t>
+  </si>
+  <si>
+    <t>中部エリア</t>
+  </si>
+  <si>
+    <t>関西エリア</t>
+  </si>
+  <si>
+    <t>社員別給料計算表（等級Ｇ以外・支給総額３０万円以上）</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キュウリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ケイサンヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウキュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>シキュウソウガク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>マンエン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>販売エリア別集計表</t>
+    <rPh sb="0" eb="2">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>シュウケイヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東北エリア</t>
+    <rPh sb="0" eb="2">
+      <t>トウホク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>関東エリア</t>
+    <rPh sb="0" eb="2">
+      <t>カントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中部エリア</t>
+    <rPh sb="0" eb="2">
+      <t>チュウブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>関西エリア</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1454,8 +1955,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0;[Red]\-#,##0.0"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -1695,7 +2197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1725,9 +2227,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1736,9 +2235,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1763,16 +2267,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
@@ -2951,6 +3470,348 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>利益額の構成比</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1-4'!$D$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>利益額</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1-4'!$A$34:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>新宿支店</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>池袋支店</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>銀座支店</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>渋谷支店</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1-4'!$D$34:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>311599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>357103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>349126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>330883</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC88-4189-B2AD-46C9D28EBBB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3032,6 +3893,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4584,6 +5485,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4687,6 +6107,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E721A59F-B62E-4602-9DA6-A4AF86D09DB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25589238-06AE-46E8-840D-3EFBF377E91B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4998,20 +6459,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:15" ht="19.5" thickBot="1">
       <c r="A2" s="4" t="s">
@@ -5050,10 +6511,10 @@
       <c r="L2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="28"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="7">
@@ -5354,10 +6815,10 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N8" s="28" t="s">
+      <c r="N8" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="28"/>
+      <c r="O8" s="41"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="7">
@@ -5404,10 +6865,10 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="20">
         <v>375</v>
       </c>
     </row>
@@ -5522,10 +6983,10 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="8"/>
-      <c r="N12" s="28" t="s">
+      <c r="N12" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="28"/>
+      <c r="O12" s="41"/>
     </row>
     <row r="13" spans="1:15" ht="19.5" thickBot="1">
       <c r="A13" s="9"/>
@@ -5582,20 +7043,20 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
       <c r="N15" s="7">
         <v>100</v>
       </c>
@@ -5722,10 +7183,10 @@
       <c r="L18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="N18" s="28" t="s">
+      <c r="N18" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="O18" s="28"/>
+      <c r="O18" s="41"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="7">
@@ -5920,18 +7381,18 @@
       <c r="L23" s="13"/>
     </row>
     <row r="24" spans="1:15" ht="19.5" thickBot="1">
-      <c r="N24" s="28" t="s">
+      <c r="N24" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="O24" s="28"/>
+      <c r="O24" s="41"/>
     </row>
     <row r="25" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
       <c r="N25" s="4" t="s">
         <v>10</v>
       </c>
@@ -5955,7 +7416,7 @@
       <c r="N26" s="7">
         <v>1</v>
       </c>
-      <c r="O26" s="22">
+      <c r="O26" s="21">
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
@@ -5975,14 +7436,14 @@
         <f>DSUM(社員別賃金一覧表1,D$26,$N$29:$N$30)</f>
         <v>31170</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F27" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
       <c r="L27" s="18">
         <f>DSUM(社員別賃金一覧表1,K16,N36:O37)</f>
         <v>562380</v>
@@ -5990,7 +7451,7 @@
       <c r="N27" s="9">
         <v>103</v>
       </c>
-      <c r="O27" s="23">
+      <c r="O27" s="22">
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
@@ -6010,14 +7471,14 @@
         <f>DSUM(社員別賃金一覧表1,D$26,$N$31:$N$32)</f>
         <v>30740</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="F28" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
       <c r="L28" s="8">
         <f>DCOUNTA(社員別賃金一覧表1,C2,N39:O40)</f>
         <v>5</v>
@@ -6039,53 +7500,53 @@
         <f>DSUM(社員別賃金一覧表1,D$26,$N$33:$N$34)</f>
         <v>35490</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
       <c r="L29" s="16">
         <f>DMAX(社員別賃金一覧表1,I2,N42:N43)</f>
         <v>25180</v>
       </c>
-      <c r="N29" s="24" t="s">
+      <c r="N29" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="N30" s="25" t="s">
+      <c r="N30" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="N31" s="25" t="s">
+      <c r="N31" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="N32" s="25" t="s">
+      <c r="N32" s="24" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="33" spans="14:15">
-      <c r="N33" s="25" t="s">
+      <c r="N33" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="14:15" ht="19.5" thickBot="1">
-      <c r="N34" s="26" t="s">
+      <c r="N34" s="25" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="14:15" ht="19.5" thickBot="1"/>
     <row r="36" spans="14:15">
-      <c r="N36" s="20" t="s">
+      <c r="N36" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="O36" s="21" t="s">
+      <c r="O36" s="20" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6099,10 +7560,10 @@
     </row>
     <row r="38" spans="14:15" ht="19.5" thickBot="1"/>
     <row r="39" spans="14:15">
-      <c r="N39" s="20" t="s">
+      <c r="N39" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="O39" s="21" t="s">
+      <c r="O39" s="20" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6116,12 +7577,12 @@
     </row>
     <row r="41" spans="14:15" ht="19.5" thickBot="1"/>
     <row r="42" spans="14:15">
-      <c r="N42" s="24" t="s">
+      <c r="N42" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="43" spans="14:15" ht="19.5" thickBot="1">
-      <c r="N43" s="26" t="s">
+      <c r="N43" s="25" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6130,17 +7591,17 @@
     <sortCondition ref="K16"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N18:O18"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A15:L15"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="F27:K27"/>
     <mergeCell ref="F29:K29"/>
     <mergeCell ref="F28:K28"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N18:O18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6179,20 +7640,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.5" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="4" t="s">
@@ -6267,7 +7728,7 @@
         <f>E3*G3</f>
         <v>305620</v>
       </c>
-      <c r="I3" s="38">
+      <c r="I3" s="28">
         <f>VLOOKUP(RIGHT(A3,1),$N$15:$O$17,2,0)</f>
         <v>0.11700000000000001</v>
       </c>
@@ -6319,7 +7780,7 @@
         <f t="shared" ref="H4:H18" si="3">E4*G4</f>
         <v>524400</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="28">
         <f t="shared" ref="I4:I18" si="4">VLOOKUP(RIGHT(A4,1),$N$15:$O$17,2,0)</f>
         <v>0.11700000000000001</v>
       </c>
@@ -6371,7 +7832,7 @@
         <f t="shared" si="3"/>
         <v>512730</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="28">
         <f t="shared" si="4"/>
         <v>0.11700000000000001</v>
       </c>
@@ -6423,7 +7884,7 @@
         <f t="shared" si="3"/>
         <v>309680</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="28">
         <f t="shared" si="4"/>
         <v>0.11700000000000001</v>
       </c>
@@ -6475,7 +7936,7 @@
         <f t="shared" si="3"/>
         <v>499870</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="28">
         <f t="shared" si="4"/>
         <v>0.126</v>
       </c>
@@ -6521,7 +7982,7 @@
         <f t="shared" si="3"/>
         <v>367080</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="28">
         <f t="shared" si="4"/>
         <v>0.126</v>
       </c>
@@ -6576,7 +8037,7 @@
         <f t="shared" si="3"/>
         <v>252720</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="28">
         <f t="shared" si="4"/>
         <v>0.126</v>
       </c>
@@ -6631,7 +8092,7 @@
         <f t="shared" si="3"/>
         <v>556160</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="28">
         <f t="shared" si="4"/>
         <v>0.126</v>
       </c>
@@ -6686,7 +8147,7 @@
         <f t="shared" si="3"/>
         <v>326340</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="28">
         <f t="shared" si="4"/>
         <v>0.108</v>
       </c>
@@ -6741,7 +8202,7 @@
         <f t="shared" si="3"/>
         <v>516120</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="28">
         <f t="shared" si="4"/>
         <v>0.108</v>
       </c>
@@ -6796,7 +8257,7 @@
         <f t="shared" si="3"/>
         <v>216270</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="28">
         <f t="shared" si="4"/>
         <v>0.108</v>
       </c>
@@ -6842,7 +8303,7 @@
         <f t="shared" si="3"/>
         <v>568800</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="28">
         <f t="shared" si="4"/>
         <v>0.108</v>
       </c>
@@ -6894,7 +8355,7 @@
         <f t="shared" si="3"/>
         <v>489510</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="28">
         <f t="shared" si="4"/>
         <v>0.11700000000000001</v>
       </c>
@@ -6913,7 +8374,7 @@
       <c r="N15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="O15" s="27">
+      <c r="O15" s="26">
         <v>0.108</v>
       </c>
     </row>
@@ -6946,7 +8407,7 @@
         <f t="shared" si="3"/>
         <v>284280</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="28">
         <f t="shared" si="4"/>
         <v>0.11700000000000001</v>
       </c>
@@ -6965,7 +8426,7 @@
       <c r="N16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O16" s="27">
+      <c r="O16" s="26">
         <v>0.11700000000000001</v>
       </c>
     </row>
@@ -6998,7 +8459,7 @@
         <f t="shared" si="3"/>
         <v>510300</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="28">
         <f t="shared" si="4"/>
         <v>0.11700000000000001</v>
       </c>
@@ -7017,7 +8478,7 @@
       <c r="N17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O17" s="27">
+      <c r="O17" s="26">
         <v>0.126</v>
       </c>
     </row>
@@ -7050,7 +8511,7 @@
         <f t="shared" si="3"/>
         <v>521400</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="28">
         <f t="shared" si="4"/>
         <v>0.11700000000000001</v>
       </c>
@@ -7113,20 +8574,20 @@
       <c r="L20" s="13"/>
     </row>
     <row r="22" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="4" t="s">
@@ -7191,7 +8652,7 @@
       <c r="H24" s="2">
         <v>556160</v>
       </c>
-      <c r="I24" s="38">
+      <c r="I24" s="28">
         <v>0.126</v>
       </c>
       <c r="J24" s="2">
@@ -7229,7 +8690,7 @@
       <c r="H25" s="2">
         <v>568800</v>
       </c>
-      <c r="I25" s="38">
+      <c r="I25" s="28">
         <v>0.108</v>
       </c>
       <c r="J25" s="2">
@@ -7267,7 +8728,7 @@
       <c r="H26" s="2">
         <v>521400</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="28">
         <v>0.11700000000000001</v>
       </c>
       <c r="J26" s="2">
@@ -7305,7 +8766,7 @@
       <c r="H27" s="2">
         <v>516120</v>
       </c>
-      <c r="I27" s="38">
+      <c r="I27" s="28">
         <v>0.108</v>
       </c>
       <c r="J27" s="2">
@@ -7344,7 +8805,7 @@
       <c r="H28" s="2">
         <v>489510</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="28">
         <v>0.11700000000000001</v>
       </c>
       <c r="J28" s="2">
@@ -7403,12 +8864,12 @@
       <c r="L30" s="13"/>
     </row>
     <row r="32" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="4" t="s">
@@ -7423,16 +8884,16 @@
       <c r="D33" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F33" s="37" t="s">
+      <c r="F33" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="G33" s="37" t="s">
+      <c r="G33" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="H33" s="37" t="s">
+      <c r="H33" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="I33" s="37" t="s">
+      <c r="I33" s="27" t="s">
         <v>103</v>
       </c>
     </row>
@@ -7481,10 +8942,10 @@
         <f>DSUM(委託販売一覧表2,D$33,$G$33:$G$34)</f>
         <v>24053</v>
       </c>
-      <c r="N35" s="37" t="s">
+      <c r="N35" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="O35" s="37" t="s">
+      <c r="O35" s="27" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7529,10 +8990,10 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="N38" s="37" t="s">
+      <c r="N38" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="O38" s="37" t="s">
+      <c r="O38" s="27" t="s">
         <v>105</v>
       </c>
     </row>
@@ -7545,51 +9006,51 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
       <c r="H40" s="18">
         <f>DSUM(委託販売一覧表2,K2,N35:O36)</f>
         <v>55660</v>
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
       <c r="H41" s="8">
         <f>DCOUNTA(委託販売一覧表2,A2,N38:O39)</f>
         <v>7</v>
       </c>
-      <c r="N41" s="37" t="s">
+      <c r="N41" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="O41" s="37" t="s">
+      <c r="O41" s="27" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
       <c r="H42" s="13">
         <f>ROUND(DAVERAGE(委託販売一覧表2,J2,N41:O42),0)</f>
         <v>61407</v>
@@ -7627,8 +9088,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7648,20 +9109,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.5" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="4" t="s">
@@ -7700,10 +9161,10 @@
       <c r="L2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="27" t="s">
         <v>124</v>
       </c>
     </row>
@@ -7733,7 +9194,7 @@
         <f>E3*F3</f>
         <v>736170</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="28">
         <f>IF(F3&lt;=450,5.3%,VLOOKUP(LEFT(A3,1),$N$15:$O$16,2,0))</f>
         <v>7.4999999999999997E-2</v>
       </c>
@@ -7786,7 +9247,7 @@
         <f t="shared" ref="G4:G18" si="3">E4*F4</f>
         <v>542900</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="28">
         <f t="shared" ref="H4:H18" si="4">IF(F4&lt;=450,5.3%,VLOOKUP(LEFT(A4,1),$N$15:$O$16,2,0))</f>
         <v>7.4999999999999997E-2</v>
       </c>
@@ -7839,7 +9300,7 @@
         <f t="shared" si="3"/>
         <v>604890</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="28">
         <f t="shared" si="4"/>
         <v>5.2999999999999999E-2</v>
       </c>
@@ -7892,7 +9353,7 @@
         <f t="shared" si="3"/>
         <v>468000</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="28">
         <f t="shared" si="4"/>
         <v>5.2999999999999999E-2</v>
       </c>
@@ -7945,7 +9406,7 @@
         <f t="shared" si="3"/>
         <v>556500</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="28">
         <f t="shared" si="4"/>
         <v>5.2999999999999999E-2</v>
       </c>
@@ -7992,7 +9453,7 @@
         <f t="shared" si="3"/>
         <v>560700</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="28">
         <f t="shared" si="4"/>
         <v>7.4999999999999997E-2</v>
       </c>
@@ -8015,10 +9476,10 @@
       <c r="N8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O8" s="37" t="s">
+      <c r="O8" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="P8" s="37" t="s">
+      <c r="P8" s="27" t="s">
         <v>145</v>
       </c>
     </row>
@@ -8048,7 +9509,7 @@
         <f t="shared" si="3"/>
         <v>756470</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="28">
         <f t="shared" si="4"/>
         <v>7.4999999999999997E-2</v>
       </c>
@@ -8104,7 +9565,7 @@
         <f t="shared" si="3"/>
         <v>592800</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="28">
         <f t="shared" si="4"/>
         <v>7.4999999999999997E-2</v>
       </c>
@@ -8160,7 +9621,7 @@
         <f t="shared" si="3"/>
         <v>612150</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="28">
         <f t="shared" si="4"/>
         <v>5.2999999999999999E-2</v>
       </c>
@@ -8216,7 +9677,7 @@
         <f t="shared" si="3"/>
         <v>567820</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="28">
         <f t="shared" si="4"/>
         <v>6.4000000000000001E-2</v>
       </c>
@@ -8272,7 +9733,7 @@
         <f t="shared" si="3"/>
         <v>843700</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="28">
         <f t="shared" si="4"/>
         <v>6.4000000000000001E-2</v>
       </c>
@@ -8319,7 +9780,7 @@
         <f t="shared" si="3"/>
         <v>544960</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="28">
         <f t="shared" si="4"/>
         <v>6.4000000000000001E-2</v>
       </c>
@@ -8339,10 +9800,10 @@
         <f t="shared" si="8"/>
         <v>**</v>
       </c>
-      <c r="N14" s="37" t="s">
+      <c r="N14" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="O14" s="37" t="s">
+      <c r="O14" s="27" t="s">
         <v>128</v>
       </c>
     </row>
@@ -8372,7 +9833,7 @@
         <f t="shared" si="3"/>
         <v>907890</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="28">
         <f t="shared" si="4"/>
         <v>6.4000000000000001E-2</v>
       </c>
@@ -8395,7 +9856,7 @@
       <c r="N15" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="O15" s="27">
+      <c r="O15" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -8425,7 +9886,7 @@
         <f t="shared" si="3"/>
         <v>605200</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="28">
         <f t="shared" si="4"/>
         <v>6.4000000000000001E-2</v>
       </c>
@@ -8448,7 +9909,7 @@
       <c r="N16" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="O16" s="27">
+      <c r="O16" s="26">
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
@@ -8478,7 +9939,7 @@
         <f t="shared" si="3"/>
         <v>893750</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="28">
         <f t="shared" si="4"/>
         <v>6.4000000000000001E-2</v>
       </c>
@@ -8525,7 +9986,7 @@
         <f t="shared" si="3"/>
         <v>536640</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="28">
         <f t="shared" si="4"/>
         <v>6.4000000000000001E-2</v>
       </c>
@@ -8592,20 +10053,20 @@
       <c r="L20" s="13"/>
     </row>
     <row r="22" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="4" t="s">
@@ -8667,7 +10128,7 @@
       <c r="G24" s="2">
         <v>907890</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="28">
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="I24" s="2">
@@ -8705,7 +10166,7 @@
       <c r="G25" s="2">
         <v>736170</v>
       </c>
-      <c r="H25" s="38">
+      <c r="H25" s="28">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I25" s="2">
@@ -8743,7 +10204,7 @@
       <c r="G26" s="2">
         <v>756470</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="28">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I26" s="2">
@@ -8781,7 +10242,7 @@
       <c r="G27" s="2">
         <v>843700</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H27" s="28">
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="I27" s="2">
@@ -8843,12 +10304,12 @@
       <c r="L29" s="13"/>
     </row>
     <row r="31" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="4" t="s">
@@ -8863,16 +10324,16 @@
       <c r="D32" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G32" s="37" t="s">
+      <c r="G32" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="H32" s="37" t="s">
+      <c r="H32" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="I32" s="37" t="s">
+      <c r="I32" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="J32" s="37" t="s">
+      <c r="J32" s="27" t="s">
         <v>124</v>
       </c>
     </row>
@@ -8977,24 +10438,24 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
       <c r="E38" s="18">
         <f>ROUND(DAVERAGE(得意先別売上一覧表3,J2,O33:O34),0)</f>
         <v>656397</v>
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
       <c r="E39" s="8">
         <f>DCOUNT(得意先別売上一覧表3,G2,N36:O37)</f>
         <v>10</v>
@@ -9007,12 +10468,12 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
       <c r="E40" s="16">
         <f>DSUM(得意先別売上一覧表3,I2,N39:O40)</f>
         <v>352820</v>
@@ -9030,12 +10491,12 @@
     <sortCondition descending="1" ref="I24:I27"/>
   </sortState>
   <mergeCells count="6">
+    <mergeCell ref="A40:D40"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A22:L22"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9046,36 +10507,45 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34851000-C895-4913-AA3F-82D3DCD509FF}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
-    <col min="11" max="11" width="16.125" customWidth="1"/>
+    <col min="1" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.5" customWidth="1"/>
+    <col min="15" max="18" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="4" t="s">
@@ -9117,13 +10587,13 @@
       <c r="M2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="27" t="s">
         <v>176</v>
       </c>
     </row>
@@ -9160,11 +10630,11 @@
         <f>G3-E3*F3</f>
         <v>68797</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J3" s="28">
         <f>ROUNDUP(F3/VLOOKUP(C3,$O$9:$R$12,4,0),3)</f>
         <v>0.96399999999999997</v>
       </c>
-      <c r="K3" s="38">
+      <c r="K3" s="28">
         <f>ROUNDDOWN(I3/(E3*F3),3)</f>
         <v>0.17599999999999999</v>
       </c>
@@ -9219,11 +10689,11 @@
         <f t="shared" ref="I4:I18" si="4">G4-E4*F4</f>
         <v>85135</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="28">
         <f t="shared" ref="J4:J18" si="5">ROUNDUP(F4/VLOOKUP(C4,$O$9:$R$12,4,0),3)</f>
         <v>1.0449999999999999</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="28">
         <f t="shared" ref="K4:K18" si="6">ROUNDDOWN(I4/(E4*F4),3)</f>
         <v>0.17499999999999999</v>
       </c>
@@ -9278,11 +10748,11 @@
         <f t="shared" si="4"/>
         <v>80132</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="28">
         <f t="shared" si="5"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="28">
         <f t="shared" si="6"/>
         <v>0.16900000000000001</v>
       </c>
@@ -9337,11 +10807,11 @@
         <f t="shared" si="4"/>
         <v>77535</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="28">
         <f t="shared" si="5"/>
         <v>0.89200000000000002</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="28">
         <f t="shared" si="6"/>
         <v>0.17399999999999999</v>
       </c>
@@ -9396,11 +10866,11 @@
         <f t="shared" si="4"/>
         <v>98920</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="28">
         <f t="shared" si="5"/>
         <v>1.1059999999999999</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="28">
         <f t="shared" si="6"/>
         <v>0.22</v>
       </c>
@@ -9446,11 +10916,11 @@
         <f t="shared" si="4"/>
         <v>75020</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="28">
         <f t="shared" si="5"/>
         <v>0.97799999999999998</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="28">
         <f t="shared" si="6"/>
         <v>0.16500000000000001</v>
       </c>
@@ -9462,16 +10932,16 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="O8" s="37" t="s">
+      <c r="O8" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="P8" s="37" t="s">
+      <c r="P8" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="Q8" s="37" t="s">
+      <c r="Q8" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="R8" s="37" t="s">
+      <c r="R8" s="27" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9508,11 +10978,11 @@
         <f t="shared" si="4"/>
         <v>88856</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="28">
         <f t="shared" si="5"/>
         <v>1.073</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="28">
         <f t="shared" si="6"/>
         <v>0.192</v>
       </c>
@@ -9570,11 +11040,11 @@
         <f t="shared" si="4"/>
         <v>94307</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="28">
         <f t="shared" si="5"/>
         <v>1.0479999999999998</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="28">
         <f t="shared" si="6"/>
         <v>0.18</v>
       </c>
@@ -9632,11 +11102,11 @@
         <f t="shared" si="4"/>
         <v>90058</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="28">
         <f t="shared" si="5"/>
         <v>1.0419999999999998</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="28">
         <f t="shared" si="6"/>
         <v>0.21299999999999999</v>
       </c>
@@ -9694,11 +11164,11 @@
         <f t="shared" si="4"/>
         <v>95719</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="28">
         <f t="shared" si="5"/>
         <v>1.1519999999999999</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="28">
         <f t="shared" si="6"/>
         <v>0.17899999999999999</v>
       </c>
@@ -9756,11 +11226,11 @@
         <f t="shared" si="4"/>
         <v>65350</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="28">
         <f t="shared" si="5"/>
         <v>1.0229999999999999</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="28">
         <f t="shared" si="6"/>
         <v>0.14799999999999999</v>
       </c>
@@ -9806,11 +11276,11 @@
         <f t="shared" si="4"/>
         <v>97999</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="28">
         <f t="shared" si="5"/>
         <v>1.0309999999999999</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="28">
         <f t="shared" si="6"/>
         <v>0.19</v>
       </c>
@@ -9856,11 +11326,11 @@
         <f t="shared" si="4"/>
         <v>67334</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="28">
         <f t="shared" si="5"/>
         <v>0.91300000000000003</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="28">
         <f t="shared" si="6"/>
         <v>0.182</v>
       </c>
@@ -9906,11 +11376,11 @@
         <f t="shared" si="4"/>
         <v>90197</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="28">
         <f t="shared" si="5"/>
         <v>0.96499999999999997</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="28">
         <f t="shared" si="6"/>
         <v>0.20100000000000001</v>
       </c>
@@ -9956,11 +11426,11 @@
         <f t="shared" si="4"/>
         <v>73948</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="28">
         <f t="shared" si="5"/>
         <v>1.0819999999999999</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="28">
         <f t="shared" si="6"/>
         <v>0.159</v>
       </c>
@@ -10006,11 +11476,11 @@
         <f t="shared" si="4"/>
         <v>99404</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="28">
         <f t="shared" si="5"/>
         <v>1.0959999999999999</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="28">
         <f t="shared" si="6"/>
         <v>0.18099999999999999</v>
       </c>
@@ -10065,21 +11535,21 @@
       <c r="M20" s="13"/>
     </row>
     <row r="22" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4" t="s">
@@ -10150,10 +11620,10 @@
       <c r="I24" s="2">
         <v>95719</v>
       </c>
-      <c r="J24" s="38">
+      <c r="J24" s="28">
         <v>1.1519999999999999</v>
       </c>
-      <c r="K24" s="38">
+      <c r="K24" s="28">
         <v>0.17899999999999999</v>
       </c>
       <c r="L24" s="2">
@@ -10191,10 +11661,10 @@
       <c r="I25" s="2">
         <v>85135</v>
       </c>
-      <c r="J25" s="38">
+      <c r="J25" s="28">
         <v>1.0449999999999999</v>
       </c>
-      <c r="K25" s="38">
+      <c r="K25" s="28">
         <v>0.17499999999999999</v>
       </c>
       <c r="L25" s="2">
@@ -10232,10 +11702,10 @@
       <c r="I26" s="2">
         <v>75020</v>
       </c>
-      <c r="J26" s="38">
+      <c r="J26" s="28">
         <v>0.97799999999999998</v>
       </c>
-      <c r="K26" s="38">
+      <c r="K26" s="28">
         <v>0.16500000000000001</v>
       </c>
       <c r="L26" s="2">
@@ -10273,10 +11743,10 @@
       <c r="I27" s="2">
         <v>94307</v>
       </c>
-      <c r="J27" s="38">
+      <c r="J27" s="28">
         <v>1.0479999999999998</v>
       </c>
-      <c r="K27" s="38">
+      <c r="K27" s="28">
         <v>0.18</v>
       </c>
       <c r="L27" s="2">
@@ -10314,10 +11784,10 @@
       <c r="I28" s="2">
         <v>77535</v>
       </c>
-      <c r="J28" s="38">
+      <c r="J28" s="28">
         <v>0.89200000000000002</v>
       </c>
-      <c r="K28" s="38">
+      <c r="K28" s="28">
         <v>0.17399999999999999</v>
       </c>
       <c r="L28" s="2">
@@ -10368,23 +11838,200 @@
       <c r="L30" s="11"/>
       <c r="M30" s="13"/>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" t="s">
+    <row r="32" spans="1:13" ht="19.5" thickBot="1">
+      <c r="A32" s="33" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="19" t="s">
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="6" t="s">
         <v>171</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="I33" s="27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" s="2">
+        <f>DSUM(支店別販売一覧表4,B$33,$F$33:$F$34)</f>
+        <v>891</v>
+      </c>
+      <c r="C34" s="2">
+        <f>DSUM(支店別販売一覧表4,C$33,$F$33:$F$34)</f>
+        <v>2104000</v>
+      </c>
+      <c r="D34" s="14">
+        <f>DSUM(支店別販売一覧表4,D$33,$F$33:$F$34)</f>
+        <v>311599</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="I34" s="29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35" s="2">
+        <f>DSUM(支店別販売一覧表4,B$33,$G$33:$G$34)</f>
+        <v>937</v>
+      </c>
+      <c r="C35" s="2">
+        <f>DSUM(支店別販売一覧表4,C$33,$G$33:$G$34)</f>
+        <v>2243000</v>
+      </c>
+      <c r="D35" s="14">
+        <f>DSUM(支店別販売一覧表4,D$33,$G$33:$G$34)</f>
+        <v>357103</v>
+      </c>
+      <c r="F35" s="48"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" s="2">
+        <f>DSUM(支店別販売一覧表4,B$33,$H$33:$H$34)</f>
+        <v>947</v>
+      </c>
+      <c r="C36" s="2">
+        <f>DSUM(支店別販売一覧表4,C$33,$H$33:$H$34)</f>
+        <v>2259000</v>
+      </c>
+      <c r="D36" s="14">
+        <f>DSUM(支店別販売一覧表4,D$33,$H$33:$H$34)</f>
+        <v>349126</v>
+      </c>
+      <c r="F36" s="48"/>
+      <c r="L36" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="M36" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="19.5" thickBot="1">
+      <c r="A37" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="B37" s="15">
+        <f>DSUM(支店別販売一覧表4,B$33,$I$33:$I$34)</f>
+        <v>905</v>
+      </c>
+      <c r="C37" s="15">
+        <f>DSUM(支店別販売一覧表4,C$33,$I$33:$I$34)</f>
+        <v>2160000</v>
+      </c>
+      <c r="D37" s="16">
+        <f>DSUM(支店別販売一覧表4,D$33,$I$33:$I$34)</f>
+        <v>330883</v>
+      </c>
+      <c r="L37" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="M37" s="51" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="19.5" thickBot="1">
+      <c r="L38" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="M38" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="18">
+        <f>DSUM(支店別販売一覧表4,I2,L36:M37)</f>
+        <v>814420</v>
+      </c>
+      <c r="L39" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="M39" s="51" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="14">
+        <f>DCOUNTA(支店別販売一覧表4,G2,L38:M39)</f>
+        <v>6</v>
+      </c>
+      <c r="L40" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="M40" s="27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="19.5" thickBot="1">
+      <c r="A41" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="16">
+        <f>DMIN(支店別販売一覧表4,H2,L40:M41)</f>
+        <v>2266</v>
+      </c>
+      <c r="L41" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="M41" s="52" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -10392,12 +12039,1324 @@
     <sortCondition ref="C24:C28"/>
     <sortCondition descending="1" ref="K24:K28"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="A41:F41"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A22:M22"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FCBC7B-CEF8-4A91-91DB-B98BAEED47F6}">
+  <dimension ref="A1:Q34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="19.5" thickBot="1">
+      <c r="A1" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="30">
+        <v>101</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="29" t="str">
+        <f>VLOOKUP(A3,$O$4:$P$7,2,1)&amp;"エリア"</f>
+        <v>東北エリア</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="E3" s="2">
+        <f>VLOOKUP(D3,$O$10:$P$13,2,0)</f>
+        <v>198400</v>
+      </c>
+      <c r="F3" s="29">
+        <v>841</v>
+      </c>
+      <c r="G3" s="29">
+        <v>825</v>
+      </c>
+      <c r="H3" s="28">
+        <f>ROUNDDOWN(F3/G3,3)</f>
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="I3" s="2">
+        <f>ROUNDUP($P$15*F3,-2)</f>
+        <v>50200</v>
+      </c>
+      <c r="J3" s="2">
+        <f>ROUNDDOWN($P$16*F3,-1)</f>
+        <v>38010</v>
+      </c>
+      <c r="K3" s="2">
+        <f>INT(IF(H3&gt;=100%,E3*6.8%,E3*5.7%))</f>
+        <v>13491</v>
+      </c>
+      <c r="L3" s="3">
+        <f>E3+I3+J3+K3</f>
+        <v>300101</v>
+      </c>
+      <c r="M3" s="8" t="str">
+        <f>VLOOKUP(L3,$O$20:$Q$21,IF(H3&lt;100%,2,3),1)</f>
+        <v>****</v>
+      </c>
+      <c r="O3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="30">
+        <v>102</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="29" t="str">
+        <f t="shared" ref="C4:C14" si="0">VLOOKUP(A4,$O$4:$P$7,2,1)&amp;"エリア"</f>
+        <v>東北エリア</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E14" si="1">VLOOKUP(D4,$O$10:$P$13,2,0)</f>
+        <v>209600</v>
+      </c>
+      <c r="F4" s="29">
+        <v>845</v>
+      </c>
+      <c r="G4" s="29">
+        <v>820</v>
+      </c>
+      <c r="H4" s="28">
+        <f t="shared" ref="H4:H14" si="2">ROUNDDOWN(F4/G4,3)</f>
+        <v>1.03</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I14" si="3">ROUNDUP($P$15*F4,-2)</f>
+        <v>50400</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J14" si="4">ROUNDDOWN($P$16*F4,-1)</f>
+        <v>38190</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:K14" si="5">INT(IF(H4&gt;=100%,E4*6.8%,E4*5.7%))</f>
+        <v>14252</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" ref="L4:L14" si="6">E4+I4+J4+K4</f>
+        <v>312442</v>
+      </c>
+      <c r="M4" s="8" t="str">
+        <f t="shared" ref="M4:M14" si="7">VLOOKUP(L4,$O$20:$Q$21,IF(H4&lt;100%,2,3),1)</f>
+        <v>****</v>
+      </c>
+      <c r="O4" s="29">
+        <v>100</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="30">
+        <v>103</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>東北エリア</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>187300</v>
+      </c>
+      <c r="F5" s="29">
+        <v>790</v>
+      </c>
+      <c r="G5" s="29">
+        <v>741</v>
+      </c>
+      <c r="H5" s="28">
+        <f t="shared" si="2"/>
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="3"/>
+        <v>47100</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="4"/>
+        <v>35700</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="5"/>
+        <v>12736</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="6"/>
+        <v>282836</v>
+      </c>
+      <c r="M5" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>**</v>
+      </c>
+      <c r="O5" s="29">
+        <v>200</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="30">
+        <v>201</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>関東エリア</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>220800</v>
+      </c>
+      <c r="F6" s="29">
+        <v>820</v>
+      </c>
+      <c r="G6" s="29">
+        <v>849</v>
+      </c>
+      <c r="H6" s="28">
+        <f t="shared" si="2"/>
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="3"/>
+        <v>48900</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="4"/>
+        <v>37060</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="5"/>
+        <v>12585</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="6"/>
+        <v>319345</v>
+      </c>
+      <c r="M6" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>***</v>
+      </c>
+      <c r="O6" s="29">
+        <v>300</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="30">
+        <v>202</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>関東エリア</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>187300</v>
+      </c>
+      <c r="F7" s="29">
+        <v>774</v>
+      </c>
+      <c r="G7" s="29">
+        <v>748</v>
+      </c>
+      <c r="H7" s="28">
+        <f t="shared" si="2"/>
+        <v>1.034</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="3"/>
+        <v>46200</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="4"/>
+        <v>34980</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="5"/>
+        <v>12736</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="6"/>
+        <v>281216</v>
+      </c>
+      <c r="M7" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>**</v>
+      </c>
+      <c r="O7" s="29">
+        <v>400</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="30">
+        <v>203</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>関東エリア</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>209600</v>
+      </c>
+      <c r="F8" s="29">
+        <v>801</v>
+      </c>
+      <c r="G8" s="29">
+        <v>760</v>
+      </c>
+      <c r="H8" s="28">
+        <f t="shared" si="2"/>
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="3"/>
+        <v>47800</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="4"/>
+        <v>36200</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="5"/>
+        <v>14252</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="6"/>
+        <v>307852</v>
+      </c>
+      <c r="M8" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>****</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="30">
+        <v>301</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>中部エリア</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>220800</v>
+      </c>
+      <c r="F9" s="29">
+        <v>815</v>
+      </c>
+      <c r="G9" s="29">
+        <v>843</v>
+      </c>
+      <c r="H9" s="28">
+        <f t="shared" si="2"/>
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="3"/>
+        <v>48600</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="4"/>
+        <v>36830</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="5"/>
+        <v>12585</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="6"/>
+        <v>318815</v>
+      </c>
+      <c r="M9" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>***</v>
+      </c>
+      <c r="O9" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="P9" s="27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="30">
+        <v>302</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>中部エリア</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>198400</v>
+      </c>
+      <c r="F10" s="29">
+        <v>770</v>
+      </c>
+      <c r="G10" s="29">
+        <v>746</v>
+      </c>
+      <c r="H10" s="28">
+        <f t="shared" si="2"/>
+        <v>1.032</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="3"/>
+        <v>45900</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="4"/>
+        <v>34800</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="5"/>
+        <v>13491</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="6"/>
+        <v>292591</v>
+      </c>
+      <c r="M10" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>**</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="P10" s="2">
+        <v>220800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="30">
+        <v>303</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>中部エリア</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>209600</v>
+      </c>
+      <c r="F11" s="29">
+        <v>749</v>
+      </c>
+      <c r="G11" s="29">
+        <v>762</v>
+      </c>
+      <c r="H11" s="28">
+        <f t="shared" si="2"/>
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="3"/>
+        <v>44700</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="4"/>
+        <v>33850</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="5"/>
+        <v>11947</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="6"/>
+        <v>300097</v>
+      </c>
+      <c r="M11" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>***</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="P11" s="2">
+        <v>209600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="30">
+        <v>401</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>関西エリア</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>198400</v>
+      </c>
+      <c r="F12" s="29">
+        <v>772</v>
+      </c>
+      <c r="G12" s="29">
+        <v>790</v>
+      </c>
+      <c r="H12" s="28">
+        <f t="shared" si="2"/>
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="3"/>
+        <v>46100</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="4"/>
+        <v>34890</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="5"/>
+        <v>11308</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="6"/>
+        <v>290698</v>
+      </c>
+      <c r="M12" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>*</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="P12" s="2">
+        <v>198400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="30">
+        <v>402</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>関西エリア</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>220800</v>
+      </c>
+      <c r="F13" s="29">
+        <v>839</v>
+      </c>
+      <c r="G13" s="29">
+        <v>839</v>
+      </c>
+      <c r="H13" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="3"/>
+        <v>50100</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="4"/>
+        <v>37920</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="5"/>
+        <v>15014</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="6"/>
+        <v>323834</v>
+      </c>
+      <c r="M13" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>****</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="P13" s="2">
+        <v>187300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="30">
+        <v>403</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>関西エリア</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>187300</v>
+      </c>
+      <c r="F14" s="29">
+        <v>690</v>
+      </c>
+      <c r="G14" s="29">
+        <v>735</v>
+      </c>
+      <c r="H14" s="28">
+        <f t="shared" si="2"/>
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="3"/>
+        <v>41200</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="4"/>
+        <v>31180</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="5"/>
+        <v>10676</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="6"/>
+        <v>270356</v>
+      </c>
+      <c r="M14" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="30"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="8"/>
+      <c r="O15" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="P15" s="53">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="19.5" thickBot="1">
+      <c r="A16" s="31"/>
+      <c r="B16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="12">
+        <f>SUM(E3:E14)</f>
+        <v>2448300</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" ref="F16:L16" si="8">SUM(F3:F14)</f>
+        <v>9506</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="8"/>
+        <v>9458</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12">
+        <f t="shared" si="8"/>
+        <v>567200</v>
+      </c>
+      <c r="J16" s="12">
+        <f t="shared" si="8"/>
+        <v>429610</v>
+      </c>
+      <c r="K16" s="12">
+        <f t="shared" si="8"/>
+        <v>155073</v>
+      </c>
+      <c r="L16" s="12">
+        <f t="shared" si="8"/>
+        <v>3600183</v>
+      </c>
+      <c r="M16" s="13"/>
+      <c r="O16" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="P16" s="53">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="19.5" thickBot="1">
+      <c r="A18" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="O18" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="P18" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q18" s="55"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19" s="54"/>
+      <c r="P19" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q19" s="52" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="30">
+        <v>402</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="2">
+        <v>220800</v>
+      </c>
+      <c r="F20" s="29">
+        <v>839</v>
+      </c>
+      <c r="G20" s="29">
+        <v>839</v>
+      </c>
+      <c r="H20" s="28">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>50100</v>
+      </c>
+      <c r="J20" s="2">
+        <v>37920</v>
+      </c>
+      <c r="K20" s="2">
+        <v>15014</v>
+      </c>
+      <c r="L20" s="3">
+        <v>323834</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="O20" s="29">
+        <v>1</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="30">
+        <v>201</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="2">
+        <v>220800</v>
+      </c>
+      <c r="F21" s="29">
+        <v>820</v>
+      </c>
+      <c r="G21" s="29">
+        <v>849</v>
+      </c>
+      <c r="H21" s="28">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="I21" s="2">
+        <v>48900</v>
+      </c>
+      <c r="J21" s="2">
+        <v>37060</v>
+      </c>
+      <c r="K21" s="2">
+        <v>12585</v>
+      </c>
+      <c r="L21" s="3">
+        <v>319345</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="O21" s="2">
+        <v>300000</v>
+      </c>
+      <c r="P21" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q21" s="29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="30">
+        <v>301</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="2">
+        <v>220800</v>
+      </c>
+      <c r="F22" s="29">
+        <v>815</v>
+      </c>
+      <c r="G22" s="29">
+        <v>843</v>
+      </c>
+      <c r="H22" s="28">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="I22" s="2">
+        <v>48600</v>
+      </c>
+      <c r="J22" s="2">
+        <v>36830</v>
+      </c>
+      <c r="K22" s="2">
+        <v>12585</v>
+      </c>
+      <c r="L22" s="3">
+        <v>318815</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="30">
+        <v>102</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="2">
+        <v>209600</v>
+      </c>
+      <c r="F23" s="29">
+        <v>845</v>
+      </c>
+      <c r="G23" s="29">
+        <v>820</v>
+      </c>
+      <c r="H23" s="28">
+        <v>1.03</v>
+      </c>
+      <c r="I23" s="2">
+        <v>50400</v>
+      </c>
+      <c r="J23" s="2">
+        <v>38190</v>
+      </c>
+      <c r="K23" s="2">
+        <v>14252</v>
+      </c>
+      <c r="L23" s="3">
+        <v>312442</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="30">
+        <v>203</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="2">
+        <v>209600</v>
+      </c>
+      <c r="F24" s="29">
+        <v>801</v>
+      </c>
+      <c r="G24" s="29">
+        <v>760</v>
+      </c>
+      <c r="H24" s="28">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="I24" s="2">
+        <v>47800</v>
+      </c>
+      <c r="J24" s="2">
+        <v>36200</v>
+      </c>
+      <c r="K24" s="2">
+        <v>14252</v>
+      </c>
+      <c r="L24" s="3">
+        <v>307852</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="30">
+        <v>303</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="2">
+        <v>209600</v>
+      </c>
+      <c r="F25" s="29">
+        <v>749</v>
+      </c>
+      <c r="G25" s="29">
+        <v>762</v>
+      </c>
+      <c r="H25" s="28">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="I25" s="2">
+        <v>44700</v>
+      </c>
+      <c r="J25" s="2">
+        <v>33850</v>
+      </c>
+      <c r="K25" s="2">
+        <v>11947</v>
+      </c>
+      <c r="L25" s="3">
+        <v>300097</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="30"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="1:17" ht="19.5" thickBot="1">
+      <c r="A27" s="31"/>
+      <c r="B27" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="12">
+        <v>2448300</v>
+      </c>
+      <c r="F27" s="12">
+        <v>9506</v>
+      </c>
+      <c r="G27" s="12">
+        <v>9458</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12">
+        <v>567200</v>
+      </c>
+      <c r="J27" s="12">
+        <v>429610</v>
+      </c>
+      <c r="K27" s="12">
+        <v>155073</v>
+      </c>
+      <c r="L27" s="12">
+        <v>3600183</v>
+      </c>
+      <c r="M27" s="13"/>
+    </row>
+    <row r="29" spans="1:17" ht="19.5" thickBot="1">
+      <c r="A29" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="B31" s="2">
+        <f>DSUM(社員別給料計算表5,B$30,$F$30:$F$31)</f>
+        <v>2476</v>
+      </c>
+      <c r="C31" s="2">
+        <f>DSUM(社員別給料計算表5,C$30,$F$30:$F$31)</f>
+        <v>147700</v>
+      </c>
+      <c r="D31" s="14">
+        <f>DSUM(社員別給料計算表5,D$30,$F$30:$F$31)</f>
+        <v>111900</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="B32" s="2">
+        <f>DSUM(社員別給料計算表5,B$30,$G$30:$G$31)</f>
+        <v>2395</v>
+      </c>
+      <c r="C32" s="2">
+        <f>DSUM(社員別給料計算表5,C$30,$G$30:$G$31)</f>
+        <v>142900</v>
+      </c>
+      <c r="D32" s="14">
+        <f>DSUM(社員別給料計算表5,D$30,$G$30:$G$31)</f>
+        <v>108240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="B33" s="2">
+        <f>DSUM(社員別給料計算表5,B$30,$H$30:$H$31)</f>
+        <v>2334</v>
+      </c>
+      <c r="C33" s="2">
+        <f>DSUM(社員別給料計算表5,C$30,$H$30:$H$31)</f>
+        <v>139200</v>
+      </c>
+      <c r="D33" s="14">
+        <f>DSUM(社員別給料計算表5,D$30,$H$30:$H$31)</f>
+        <v>105480</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A34" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="B34" s="15">
+        <f>DSUM(社員別給料計算表5,B$30,$I$30:$I$31)</f>
+        <v>2301</v>
+      </c>
+      <c r="C34" s="15">
+        <f>DSUM(社員別給料計算表5,C$30,$I$30:$I$31)</f>
+        <v>137400</v>
+      </c>
+      <c r="D34" s="16">
+        <f>DSUM(社員別給料計算表5,D$30,$I$30:$I$31)</f>
+        <v>103990</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A20:M25">
+    <sortCondition descending="1" ref="L19"/>
+  </sortState>
+  <mergeCells count="5">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A29:D29"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inside_office/excel/1級.xlsx
+++ b/inside_office/excel/1級.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seito\Documents\012Yeung\openforward\inside_office\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BD1D16-D809-4B03-9541-7243FB0BCFDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7257C3-935C-4B7A-ABF5-B31451C8FC42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="1-3" sheetId="3" r:id="rId3"/>
     <sheet name="1-4" sheetId="4" r:id="rId4"/>
     <sheet name="1-5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1-1'!$A$2:$L$11</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="263">
   <si>
     <t>社員別賃金一覧表</t>
     <rPh sb="0" eb="2">
@@ -1947,6 +1948,153 @@
     <t>関西エリア</t>
     <rPh sb="0" eb="2">
       <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>目標数が760以上で達成率</t>
+    <rPh sb="0" eb="3">
+      <t>モクヒョウスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>タッセイリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アンケート結果</t>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>回答数</t>
+    <rPh sb="0" eb="3">
+      <t>カイトウスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自分の記録用に作りたい</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>旅行の記録を残したい</t>
+    <rPh sb="0" eb="2">
+      <t>リョコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>誕生日の贈り物用に編集したい</t>
+    <rPh sb="0" eb="3">
+      <t>タンジョウビ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>趣味の記録を残したい</t>
+    <rPh sb="0" eb="2">
+      <t>シュミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>家族との思い出を形にしたい</t>
+    <rPh sb="0" eb="2">
+      <t>カゾク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>子供の成長を記録したい</t>
+    <rPh sb="0" eb="2">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイチョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結婚式の１日を記録したい</t>
+    <rPh sb="0" eb="3">
+      <t>ケッコンシキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※複数回答可</t>
+    <rPh sb="1" eb="3">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カイトウカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1982,15 +2130,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2187,6 +2341,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2197,7 +2360,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2243,6 +2406,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2267,29 +2439,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3572,6 +3744,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-93D4-43E0-A699-74825E474185}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3587,6 +3764,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-93D4-43E0-A699-74825E474185}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3602,6 +3784,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-93D4-43E0-A699-74825E474185}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3617,6 +3804,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-93D4-43E0-A699-74825E474185}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:numFmt formatCode="0.0%" sourceLinked="0"/>
@@ -3736,6 +3928,366 @@
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>回答数の比較</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>回答数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$11:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>家族との思い出を形にしたい</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>誕生日の贈り物用に編集したい</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>子供の成長を記録したい</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>旅行の記録を残したい</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>結婚式の１日を記録したい</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>自分の記録用に作りたい</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>趣味の記録を残したい</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-44B8-4A52-A9BB-EDEB3C2FABBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1215994416"/>
+        <c:axId val="1216088016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1215994416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1216088016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1216088016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1215994416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3972,6 +4524,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -5662,6 +6254,511 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6148,6 +7245,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25589238-06AE-46E8-840D-3EFBF377E91B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A63C29-35D2-4B37-9A0C-108095F6DB4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6459,20 +7597,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
     </row>
     <row r="2" spans="1:15" ht="19.5" thickBot="1">
       <c r="A2" s="4" t="s">
@@ -6511,10 +7649,10 @@
       <c r="L2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="7">
@@ -6815,10 +7953,10 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N8" s="41" t="s">
+      <c r="N8" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="41"/>
+      <c r="O8" s="39"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="7">
@@ -6983,10 +8121,10 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="8"/>
-      <c r="N12" s="41" t="s">
+      <c r="N12" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="41"/>
+      <c r="O12" s="39"/>
     </row>
     <row r="13" spans="1:15" ht="19.5" thickBot="1">
       <c r="A13" s="9"/>
@@ -7043,20 +8181,20 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
       <c r="N15" s="7">
         <v>100</v>
       </c>
@@ -7183,10 +8321,10 @@
       <c r="L18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="N18" s="41" t="s">
+      <c r="N18" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="O18" s="41"/>
+      <c r="O18" s="39"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="7">
@@ -7381,18 +8519,18 @@
       <c r="L23" s="13"/>
     </row>
     <row r="24" spans="1:15" ht="19.5" thickBot="1">
-      <c r="N24" s="41" t="s">
+      <c r="N24" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="O24" s="41"/>
+      <c r="O24" s="39"/>
     </row>
     <row r="25" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
       <c r="N25" s="4" t="s">
         <v>10</v>
       </c>
@@ -7436,14 +8574,14 @@
         <f>DSUM(社員別賃金一覧表1,D$26,$N$29:$N$30)</f>
         <v>31170</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
       <c r="L27" s="18">
         <f>DSUM(社員別賃金一覧表1,K16,N36:O37)</f>
         <v>562380</v>
@@ -7471,14 +8609,14 @@
         <f>DSUM(社員別賃金一覧表1,D$26,$N$31:$N$32)</f>
         <v>30740</v>
       </c>
-      <c r="F28" s="39" t="s">
+      <c r="F28" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
       <c r="L28" s="8">
         <f>DCOUNTA(社員別賃金一覧表1,C2,N39:O40)</f>
         <v>5</v>
@@ -7500,14 +8638,14 @@
         <f>DSUM(社員別賃金一覧表1,D$26,$N$33:$N$34)</f>
         <v>35490</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
       <c r="L29" s="16">
         <f>DMAX(社員別賃金一覧表1,I2,N42:N43)</f>
         <v>25180</v>
@@ -7591,17 +8729,17 @@
     <sortCondition ref="K16"/>
   </sortState>
   <mergeCells count="11">
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N18:O18"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A15:L15"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="F27:K27"/>
     <mergeCell ref="F29:K29"/>
     <mergeCell ref="F28:K28"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N18:O18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7640,20 +8778,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.5" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="4" t="s">
@@ -8574,20 +9712,20 @@
       <c r="L20" s="13"/>
     </row>
     <row r="22" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="4" t="s">
@@ -8864,12 +10002,12 @@
       <c r="L30" s="13"/>
     </row>
     <row r="32" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="4" t="s">
@@ -9006,30 +10144,30 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
       <c r="H40" s="18">
         <f>DSUM(委託販売一覧表2,K2,N35:O36)</f>
         <v>55660</v>
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
       <c r="H41" s="8">
         <f>DCOUNTA(委託販売一覧表2,A2,N38:O39)</f>
         <v>7</v>
@@ -9042,15 +10180,15 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
       <c r="H42" s="13">
         <f>ROUND(DAVERAGE(委託販売一覧表2,J2,N41:O42),0)</f>
         <v>61407</v>
@@ -9109,20 +10247,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.5" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="4" t="s">
@@ -10053,20 +11191,20 @@
       <c r="L20" s="13"/>
     </row>
     <row r="22" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="4" t="s">
@@ -10304,12 +11442,12 @@
       <c r="L29" s="13"/>
     </row>
     <row r="31" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="4" t="s">
@@ -10438,24 +11576,24 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
       <c r="E38" s="18">
         <f>ROUND(DAVERAGE(得意先別売上一覧表3,J2,O33:O34),0)</f>
         <v>656397</v>
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
       <c r="E39" s="8">
         <f>DCOUNT(得意先別売上一覧表3,G2,N36:O37)</f>
         <v>10</v>
@@ -10468,12 +11606,12 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="16">
         <f>DSUM(得意先別売上一覧表3,I2,N39:O40)</f>
         <v>352820</v>
@@ -10531,21 +11669,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="4" t="s">
@@ -11535,21 +12673,21 @@
       <c r="M20" s="13"/>
     </row>
     <row r="22" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4" t="s">
@@ -11839,12 +12977,12 @@
       <c r="M30" s="13"/>
     </row>
     <row r="32" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="4" t="s">
@@ -11917,7 +13055,7 @@
         <f>DSUM(支店別販売一覧表4,D$33,$G$33:$G$34)</f>
         <v>357103</v>
       </c>
-      <c r="F35" s="48"/>
+      <c r="F35" s="35"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="30" t="s">
@@ -11935,7 +13073,7 @@
         <f>DSUM(支店別販売一覧表4,D$33,$H$33:$H$34)</f>
         <v>349126</v>
       </c>
-      <c r="F36" s="48"/>
+      <c r="F36" s="35"/>
       <c r="L36" s="27" t="s">
         <v>68</v>
       </c>
@@ -11962,7 +13100,7 @@
       <c r="L37" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="M37" s="51" t="s">
+      <c r="M37" s="36" t="s">
         <v>201</v>
       </c>
     </row>
@@ -11975,14 +13113,14 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
       <c r="G39" s="18">
         <f>DSUM(支店別販売一覧表4,I2,L36:M37)</f>
         <v>814420</v>
@@ -11990,19 +13128,19 @@
       <c r="L39" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="M39" s="51" t="s">
+      <c r="M39" s="36" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
       <c r="G40" s="14">
         <f>DCOUNTA(支店別販売一覧表4,G2,L38:M39)</f>
         <v>6</v>
@@ -12015,14 +13153,14 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
       <c r="G41" s="16">
         <f>DMIN(支店別販売一覧表4,H2,L40:M41)</f>
         <v>2266</v>
@@ -12030,7 +13168,7 @@
       <c r="L41" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="M41" s="52" t="s">
+      <c r="M41" s="37" t="s">
         <v>205</v>
       </c>
     </row>
@@ -12056,10 +13194,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FCBC7B-CEF8-4A91-91DB-B98BAEED47F6}">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12079,21 +13217,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.5" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="4" t="s">
@@ -12801,7 +13939,7 @@
       <c r="O15" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="P15" s="53">
+      <c r="P15" s="38">
         <v>59.6</v>
       </c>
     </row>
@@ -12845,33 +13983,33 @@
       <c r="O16" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="P16" s="53">
+      <c r="P16" s="38">
         <v>45.2</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="19.5" thickBot="1">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="O18" s="54" t="s">
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="O18" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="P18" s="55" t="s">
+      <c r="P18" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="Q18" s="55"/>
+      <c r="Q18" s="57"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="4" t="s">
@@ -12913,11 +14051,11 @@
       <c r="M19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O19" s="54"/>
+      <c r="O19" s="56"/>
       <c r="P19" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="Q19" s="52" t="s">
+      <c r="Q19" s="37" t="s">
         <v>235</v>
       </c>
     </row>
@@ -13232,12 +14370,12 @@
       <c r="M27" s="13"/>
     </row>
     <row r="29" spans="1:17" ht="19.5" thickBot="1">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="4" t="s">
@@ -13343,6 +14481,11 @@
       <c r="D34" s="16">
         <f>DSUM(社員別給料計算表5,D$30,$I$30:$I$31)</f>
         <v>103990</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -13358,5 +14501,110 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB1CE2F-E673-40E6-A3B1-1F20A7E8C930}">
+  <dimension ref="A9:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A17" activeCellId="1" sqref="B10:B17 A10:A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="1:2" ht="19.5" thickBot="1">
+      <c r="A9" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" s="40"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="8">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="B12" s="8">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" s="8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" s="8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" s="8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" s="8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="19.5" thickBot="1">
+      <c r="A17" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" s="13">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="58" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" s="58"/>
+    </row>
+  </sheetData>
+  <sortState ref="A10:B18">
+    <sortCondition descending="1" ref="B10"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A18:B18"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/inside_office/excel/1級.xlsx
+++ b/inside_office/excel/1級.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seito\Documents\012Yeung\openforward\inside_office\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7257C3-935C-4B7A-ABF5-B31451C8FC42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B524A2-2EAC-4488-8F14-7580EDEE8680}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="1-3" sheetId="3" r:id="rId3"/>
     <sheet name="1-4" sheetId="4" r:id="rId4"/>
     <sheet name="1-5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="1-6" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1-1'!$A$2:$L$11</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="252">
   <si>
     <t>社員別賃金一覧表</t>
     <rPh sb="0" eb="2">
@@ -1961,140 +1961,6 @@
     </rPh>
     <rPh sb="10" eb="13">
       <t>タッセイリツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アンケート結果</t>
-    <rPh sb="5" eb="7">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <rPh sb="0" eb="2">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>回答数</t>
-    <rPh sb="0" eb="3">
-      <t>カイトウスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>自分の記録用に作りたい</t>
-    <rPh sb="0" eb="2">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>旅行の記録を残したい</t>
-    <rPh sb="0" eb="2">
-      <t>リョコウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ノコ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>誕生日の贈り物用に編集したい</t>
-    <rPh sb="0" eb="3">
-      <t>タンジョウビ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>趣味の記録を残したい</t>
-    <rPh sb="0" eb="2">
-      <t>シュミ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ノコ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>家族との思い出を形にしたい</t>
-    <rPh sb="0" eb="2">
-      <t>カゾク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カタチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>子供の成長を記録したい</t>
-    <rPh sb="0" eb="2">
-      <t>コドモ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セイチョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>結婚式の１日を記録したい</t>
-    <rPh sb="0" eb="3">
-      <t>ケッコンシキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※複数回答可</t>
-    <rPh sb="1" eb="3">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>カイトウカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2130,21 +1996,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2341,15 +2201,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2360,7 +2211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2406,15 +2257,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2439,6 +2285,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2455,13 +2304,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4004,366 +3846,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>回答数の比較</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>回答数</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$11:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>家族との思い出を形にしたい</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>誕生日の贈り物用に編集したい</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>子供の成長を記録したい</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>旅行の記録を残したい</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>結婚式の１日を記録したい</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>自分の記録用に作りたい</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>趣味の記録を残したい</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$11:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-44B8-4A52-A9BB-EDEB3C2FABBA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="1215994416"/>
-        <c:axId val="1216088016"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1215994416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1216088016"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1216088016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1215994416"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4485,46 +3967,6 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6596,511 +6038,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7245,47 +6182,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25589238-06AE-46E8-840D-3EFBF377E91B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A63C29-35D2-4B37-9A0C-108095F6DB4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7597,20 +6493,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
     </row>
     <row r="2" spans="1:15" ht="19.5" thickBot="1">
       <c r="A2" s="4" t="s">
@@ -7649,10 +6545,10 @@
       <c r="L2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="7">
@@ -7953,10 +6849,10 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="39"/>
+      <c r="O8" s="45"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="7">
@@ -8121,10 +7017,10 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="8"/>
-      <c r="N12" s="39" t="s">
+      <c r="N12" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="39"/>
+      <c r="O12" s="45"/>
     </row>
     <row r="13" spans="1:15" ht="19.5" thickBot="1">
       <c r="A13" s="9"/>
@@ -8181,20 +7077,20 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
       <c r="N15" s="7">
         <v>100</v>
       </c>
@@ -8321,10 +7217,10 @@
       <c r="L18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="N18" s="39" t="s">
+      <c r="N18" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="O18" s="39"/>
+      <c r="O18" s="45"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="7">
@@ -8519,18 +7415,18 @@
       <c r="L23" s="13"/>
     </row>
     <row r="24" spans="1:15" ht="19.5" thickBot="1">
-      <c r="N24" s="39" t="s">
+      <c r="N24" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="O24" s="39"/>
+      <c r="O24" s="45"/>
     </row>
     <row r="25" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
       <c r="N25" s="4" t="s">
         <v>10</v>
       </c>
@@ -8574,14 +7470,14 @@
         <f>DSUM(社員別賃金一覧表1,D$26,$N$29:$N$30)</f>
         <v>31170</v>
       </c>
-      <c r="F27" s="42" t="s">
+      <c r="F27" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
       <c r="L27" s="18">
         <f>DSUM(社員別賃金一覧表1,K16,N36:O37)</f>
         <v>562380</v>
@@ -8609,14 +7505,14 @@
         <f>DSUM(社員別賃金一覧表1,D$26,$N$31:$N$32)</f>
         <v>30740</v>
       </c>
-      <c r="F28" s="46" t="s">
+      <c r="F28" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
       <c r="L28" s="8">
         <f>DCOUNTA(社員別賃金一覧表1,C2,N39:O40)</f>
         <v>5</v>
@@ -8638,14 +7534,14 @@
         <f>DSUM(社員別賃金一覧表1,D$26,$N$33:$N$34)</f>
         <v>35490</v>
       </c>
-      <c r="F29" s="44" t="s">
+      <c r="F29" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
       <c r="L29" s="16">
         <f>DMAX(社員別賃金一覧表1,I2,N42:N43)</f>
         <v>25180</v>
@@ -8729,17 +7625,17 @@
     <sortCondition ref="K16"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N18:O18"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A15:L15"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="F27:K27"/>
     <mergeCell ref="F29:K29"/>
     <mergeCell ref="F28:K28"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N18:O18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8778,20 +7674,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.5" thickBot="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="4" t="s">
@@ -9712,20 +8608,20 @@
       <c r="L20" s="13"/>
     </row>
     <row r="22" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="4" t="s">
@@ -10002,12 +8898,12 @@
       <c r="L30" s="13"/>
     </row>
     <row r="32" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="4" t="s">
@@ -10144,30 +9040,30 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
       <c r="H40" s="18">
         <f>DSUM(委託販売一覧表2,K2,N35:O36)</f>
         <v>55660</v>
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
       <c r="H41" s="8">
         <f>DCOUNTA(委託販売一覧表2,A2,N38:O39)</f>
         <v>7</v>
@@ -10180,15 +9076,15 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
       <c r="H42" s="13">
         <f>ROUND(DAVERAGE(委託販売一覧表2,J2,N41:O42),0)</f>
         <v>61407</v>
@@ -10247,20 +9143,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.5" thickBot="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="4" t="s">
@@ -11191,20 +10087,20 @@
       <c r="L20" s="13"/>
     </row>
     <row r="22" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="4" t="s">
@@ -11442,12 +10338,12 @@
       <c r="L29" s="13"/>
     </row>
     <row r="31" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="4" t="s">
@@ -11576,24 +10472,24 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="18">
         <f>ROUND(DAVERAGE(得意先別売上一覧表3,J2,O33:O34),0)</f>
         <v>656397</v>
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
       <c r="E39" s="8">
         <f>DCOUNT(得意先別売上一覧表3,G2,N36:O37)</f>
         <v>10</v>
@@ -11606,12 +10502,12 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
       <c r="E40" s="16">
         <f>DSUM(得意先別売上一覧表3,I2,N39:O40)</f>
         <v>352820</v>
@@ -11669,21 +10565,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" thickBot="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="4" t="s">
@@ -12673,21 +11569,21 @@
       <c r="M20" s="13"/>
     </row>
     <row r="22" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4" t="s">
@@ -12977,12 +11873,12 @@
       <c r="M30" s="13"/>
     </row>
     <row r="32" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="4" t="s">
@@ -13055,7 +11951,7 @@
         <f>DSUM(支店別販売一覧表4,D$33,$G$33:$G$34)</f>
         <v>357103</v>
       </c>
-      <c r="F35" s="35"/>
+      <c r="F35" s="33"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="30" t="s">
@@ -13073,7 +11969,7 @@
         <f>DSUM(支店別販売一覧表4,D$33,$H$33:$H$34)</f>
         <v>349126</v>
       </c>
-      <c r="F36" s="35"/>
+      <c r="F36" s="33"/>
       <c r="L36" s="27" t="s">
         <v>68</v>
       </c>
@@ -13100,7 +11996,7 @@
       <c r="L37" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="M37" s="36" t="s">
+      <c r="M37" s="34" t="s">
         <v>201</v>
       </c>
     </row>
@@ -13113,14 +12009,14 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
       <c r="G39" s="18">
         <f>DSUM(支店別販売一覧表4,I2,L36:M37)</f>
         <v>814420</v>
@@ -13128,19 +12024,19 @@
       <c r="L39" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="M39" s="36" t="s">
+      <c r="M39" s="34" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
       <c r="G40" s="14">
         <f>DCOUNTA(支店別販売一覧表4,G2,L38:M39)</f>
         <v>6</v>
@@ -13153,14 +12049,14 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
       <c r="G41" s="16">
         <f>DMIN(支店別販売一覧表4,H2,L40:M41)</f>
         <v>2266</v>
@@ -13168,7 +12064,7 @@
       <c r="L41" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="M41" s="37" t="s">
+      <c r="M41" s="35" t="s">
         <v>205</v>
       </c>
     </row>
@@ -13217,21 +12113,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.5" thickBot="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="4" t="s">
@@ -13939,7 +12835,7 @@
       <c r="O15" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="P15" s="38">
+      <c r="P15" s="36">
         <v>59.6</v>
       </c>
     </row>
@@ -13983,33 +12879,33 @@
       <c r="O16" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="P16" s="38">
+      <c r="P16" s="36">
         <v>45.2</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="19.5" thickBot="1">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="O18" s="56" t="s">
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="O18" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="P18" s="57" t="s">
+      <c r="P18" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="Q18" s="57"/>
+      <c r="Q18" s="55"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="4" t="s">
@@ -14051,11 +12947,11 @@
       <c r="M19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O19" s="56"/>
+      <c r="O19" s="54"/>
       <c r="P19" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="Q19" s="37" t="s">
+      <c r="Q19" s="35" t="s">
         <v>235</v>
       </c>
     </row>
@@ -14370,12 +13266,12 @@
       <c r="M27" s="13"/>
     </row>
     <row r="29" spans="1:17" ht="19.5" thickBot="1">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="4" t="s">
@@ -14506,105 +13402,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB1CE2F-E673-40E6-A3B1-1F20A7E8C930}">
-  <dimension ref="A9:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28634BBF-5636-473F-98CC-AF5E4C8BB3E1}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A17" activeCellId="1" sqref="B10:B17 A10:A17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="9" spans="1:2" ht="19.5" thickBot="1">
-      <c r="A9" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="B9" s="40"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="59" t="s">
-        <v>253</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="B11" s="8">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="B12" s="8">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="B13" s="8">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="B14" s="8">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="B15" s="8">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="B16" s="8">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="19.5" thickBot="1">
-      <c r="A17" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="B17" s="13">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="58" t="s">
-        <v>262</v>
-      </c>
-      <c r="B18" s="58"/>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A10:B18">
-    <sortCondition descending="1" ref="B10"/>
-  </sortState>
-  <mergeCells count="2">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A18:B18"/>
-  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>